--- a/src/test/resources/Exceldata/Data.xlsx
+++ b/src/test/resources/Exceldata/Data.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Training\SprintPracto\Practo\src\test\resources\Exceldata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B2B7F1A-2314-429D-8E4D-F69BB2648F5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8775B80-6423-4000-8E76-E819D09E152C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{C7E22D9C-43BC-47A0-B775-1F14DA20C18D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Search" sheetId="1" r:id="rId1"/>
-    <sheet name="Booking" sheetId="2" r:id="rId2"/>
+    <sheet name="Navigate" sheetId="3" r:id="rId1"/>
+    <sheet name="Search" sheetId="1" r:id="rId2"/>
+    <sheet name="Booking" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>City</t>
   </si>
@@ -61,6 +62,12 @@
   </si>
   <si>
     <t>eye specialist</t>
+  </si>
+  <si>
+    <t>Chennai</t>
+  </si>
+  <si>
+    <t>Hyderabad</t>
   </si>
 </sst>
 </file>
@@ -431,10 +438,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25D3463C-9D41-480A-9D14-EF02ADCAC324}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="10.6328125" customWidth="1"/>
+    <col min="2" max="2" width="15.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776ACBD6-DB59-40DB-A04A-FDB9B8038B45}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -465,12 +511,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDCD1E35-76C5-4D8F-BAD9-C9FE831AED93}">
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
